--- a/nomii_real/data/MoneySpent.xlsx
+++ b/nomii_real/data/MoneySpent.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
   <si>
     <t>RetailerID</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>2025-08-06 01:14:08</t>
+  </si>
+  <si>
+    <t>2025-08-06 23:45:52</t>
+  </si>
+  <si>
+    <t>2025-08-06 23:59:57</t>
   </si>
   <si>
     <t>Paid</t>
@@ -453,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -490,7 +496,7 @@
         <v>45752</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -507,7 +513,7 @@
         <v>45780</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -524,7 +530,7 @@
         <v>45702</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -541,7 +547,7 @@
         <v>45835</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -558,7 +564,7 @@
         <v>45807</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -575,7 +581,7 @@
         <v>45664</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -592,7 +598,7 @@
         <v>45735</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -609,7 +615,7 @@
         <v>45699</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -626,7 +632,7 @@
         <v>45712</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -643,7 +649,7 @@
         <v>45850</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -660,7 +666,7 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -677,7 +683,7 @@
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -694,7 +700,41 @@
         <v>23</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
         <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/nomii_real/data/MoneySpent.xlsx
+++ b/nomii_real/data/MoneySpent.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t>RetailerID</t>
   </si>
@@ -79,6 +79,12 @@
     <t>all</t>
   </si>
   <si>
+    <t>89bdc2f6-0e22-47a8-b4f2-b7b5696fc495</t>
+  </si>
+  <si>
+    <t>0947da20-6ab3-444d-97b4-2aa9c1662a75</t>
+  </si>
+  <si>
     <t>2025-08-06 01:06:12</t>
   </si>
   <si>
@@ -92,6 +98,12 @@
   </si>
   <si>
     <t>2025-08-06 23:59:57</t>
+  </si>
+  <si>
+    <t>2025-08-07 23:02:17</t>
+  </si>
+  <si>
+    <t>2025-08-07 23:14:24</t>
   </si>
   <si>
     <t>Paid</t>
@@ -459,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,7 +508,7 @@
         <v>45752</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -513,7 +525,7 @@
         <v>45780</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -530,7 +542,7 @@
         <v>45702</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -547,7 +559,7 @@
         <v>45835</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -564,7 +576,7 @@
         <v>45807</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -581,7 +593,7 @@
         <v>45664</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -598,7 +610,7 @@
         <v>45735</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -615,7 +627,7 @@
         <v>45699</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -632,7 +644,7 @@
         <v>45712</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -649,7 +661,7 @@
         <v>45850</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -663,10 +675,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -680,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -697,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -714,10 +726,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -731,10 +743,44 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>73.5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>182.9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
